--- a/NBFNet/实验.xlsx
+++ b/NBFNet/实验.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaof\Desktop\repo\LLM-Graph\NBFNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\local repo\LLM-Graph\NBFNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61EADE91-AF0B-47C8-B60E-8F4D805C6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C731A04-34D8-4341-8492-BA0C8081324F}"/>
+    <workbookView xWindow="22930" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +49,15 @@
     <t>p3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,16 +414,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACABA09-661A-4F48-9732-E7D17D52AF38}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +442,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10169</v>
       </c>
@@ -451,16 +457,24 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>IF(SUM(D2:F2)&gt;1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2=C2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10169</v>
       </c>
@@ -479,8 +493,16 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">IF(SUM(D3:F3)&gt;1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="1">IF(G3=C3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10169</v>
       </c>
@@ -499,8 +521,16 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10169</v>
       </c>
@@ -514,13 +544,21 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10169</v>
       </c>
@@ -534,13 +572,21 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10169</v>
       </c>
@@ -559,8 +605,16 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10169</v>
       </c>
@@ -571,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -579,8 +633,16 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10169</v>
       </c>
@@ -591,16 +653,24 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10169</v>
       </c>
@@ -611,16 +681,24 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10169</v>
       </c>
@@ -634,14 +712,303 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>144330</v>
+      </c>
+      <c r="B12">
+        <v>63486</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>144330</v>
+      </c>
+      <c r="B13">
+        <v>2440</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>144330</v>
+      </c>
+      <c r="B14">
+        <v>3231</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>144330</v>
+      </c>
+      <c r="B15">
+        <v>954315</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>144330</v>
+      </c>
+      <c r="B16">
+        <v>10169</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>144330</v>
+      </c>
+      <c r="B17">
+        <v>56115</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>144330</v>
+      </c>
+      <c r="B18">
+        <v>72908</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>144330</v>
+      </c>
+      <c r="B19">
+        <v>83461</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>144330</v>
+      </c>
+      <c r="B20">
+        <v>17811</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>144330</v>
+      </c>
+      <c r="B21">
+        <v>37483</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NBFNet/实验.xlsx
+++ b/NBFNet/实验.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\local repo\LLM-Graph\NBFNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaof\Desktop\repo\LLM-Graph\NBFNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95506E9-2108-4B4A-9CCC-E7911BDC7B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22930" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,12 +54,20 @@
     <t>pred</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +78,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -92,17 +109,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,16 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +469,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10169</v>
       </c>
@@ -469,12 +496,8 @@
         <f>IF(SUM(D2:F2)&gt;1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="H2">
-        <f>IF(G2=C2,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10169</v>
       </c>
@@ -497,12 +520,8 @@
         <f t="shared" ref="G3:G21" si="0">IF(SUM(D3:F3)&gt;1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H21" si="1">IF(G3=C3,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10169</v>
       </c>
@@ -525,12 +544,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10169</v>
       </c>
@@ -553,12 +568,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10169</v>
       </c>
@@ -581,12 +592,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10169</v>
       </c>
@@ -609,12 +616,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10169</v>
       </c>
@@ -637,12 +640,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10169</v>
       </c>
@@ -665,12 +664,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10169</v>
       </c>
@@ -693,12 +688,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10169</v>
       </c>
@@ -721,12 +712,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>144330</v>
       </c>
@@ -749,12 +736,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>144330</v>
       </c>
@@ -777,12 +760,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>144330</v>
       </c>
@@ -805,12 +784,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>144330</v>
       </c>
@@ -833,12 +808,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>144330</v>
       </c>
@@ -861,12 +832,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>144330</v>
       </c>
@@ -889,12 +856,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>144330</v>
       </c>
@@ -917,12 +880,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>144330</v>
       </c>
@@ -945,12 +904,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>144330</v>
       </c>
@@ -973,12 +928,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>144330</v>
       </c>
@@ -1001,9 +952,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
